--- a/outputs/app-pdp-criteria-generator/information_security_manager_lead_pdp.xlsx
+++ b/outputs/app-pdp-criteria-generator/information_security_manager_lead_pdp.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>SkillCode</t>
   </si>
   <si>
+    <t>Skill Description</t>
+  </si>
+  <si>
     <t>SFIA Level</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
     <t>IRMG</t>
   </si>
   <si>
+    <t>Information management</t>
+  </si>
+  <si>
     <t>Leads and plans activities to communicate and implement information management strategies and policies</t>
   </si>
   <si>
@@ -124,6 +130,9 @@
     <t>SCTY</t>
   </si>
   <si>
+    <t>Information security</t>
+  </si>
+  <si>
     <t>Develops and communicates corporate information security policy, standards and guidelines</t>
   </si>
   <si>
@@ -145,6 +154,9 @@
     <t>INAS</t>
   </si>
   <si>
+    <t>Information assurance</t>
+  </si>
+  <si>
     <t>Develops information assurance policy, standards and guidelines</t>
   </si>
   <si>
@@ -166,6 +178,9 @@
     <t>BURM</t>
   </si>
   <si>
+    <t>Risk management</t>
+  </si>
+  <si>
     <t>Plans and manages the implementation of organisation-wide processes and procedures, tools and techniques for risk management</t>
   </si>
   <si>
@@ -178,6 +193,9 @@
     <t>RLMT</t>
   </si>
   <si>
+    <t>Stakeholder relationship management</t>
+  </si>
+  <si>
     <t>Leads the development of comprehensive stakeholder management strategies and plans</t>
   </si>
   <si>
@@ -202,6 +220,9 @@
     <t>STPL</t>
   </si>
   <si>
+    <t>Enterprise and business architecture</t>
+  </si>
+  <si>
     <t>Develops enterprise-wide architecture and processes to embed the strategic application of change in the management of the organisation</t>
   </si>
   <si>
@@ -223,6 +244,9 @@
     <t>MEAS</t>
   </si>
   <si>
+    <t>Measurement</t>
+  </si>
+  <si>
     <t>Leads the development of organisational capabilities for measurement (including automation)</t>
   </si>
   <si>
@@ -238,6 +262,9 @@
     <t>OCDV</t>
   </si>
   <si>
+    <t>Organisational capability development</t>
+  </si>
+  <si>
     <t>Seeks out, identifies, proposes, and initiates capability improvement activities within the organisation</t>
   </si>
   <si>
@@ -260,6 +287,9 @@
   </si>
   <si>
     <t>PEMT</t>
+  </si>
+  <si>
+    <t>Performance management</t>
   </si>
   <si>
     <t>Determines and delegates people management and functional management objectives and responsibilities</t>
@@ -597,986 +627,1199 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
+      <c r="E5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
       <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
+      <c r="E7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
       </c>
       <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
+      <c r="E8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
       </c>
       <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
+      <c r="E9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
       </c>
       <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
+      <c r="E10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
-        <v>15</v>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
       </c>
       <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
-        <v>16</v>
+      <c r="E12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
       </c>
       <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
-        <v>17</v>
+      <c r="E13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
       </c>
       <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
-        <v>18</v>
+      <c r="E14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
       </c>
       <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
-        <v>20</v>
+      <c r="E15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
       </c>
       <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
-        <v>21</v>
+      <c r="E16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
       </c>
       <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
         <v>3</v>
       </c>
-      <c r="D17" t="s">
-        <v>22</v>
+      <c r="E17" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
       </c>
       <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
         <v>4</v>
       </c>
-      <c r="D18" t="s">
-        <v>23</v>
+      <c r="E18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
-      <c r="D19" t="s">
-        <v>24</v>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
       </c>
       <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
-        <v>26</v>
+      <c r="E20" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
       </c>
       <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="D21" t="s">
-        <v>27</v>
+      <c r="E21" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
       </c>
       <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="D22" t="s">
-        <v>28</v>
+      <c r="E22" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
       </c>
       <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
-        <v>30</v>
+      <c r="E23" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
       </c>
       <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
         <v>2</v>
       </c>
-      <c r="D24" t="s">
-        <v>31</v>
+      <c r="E24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
       </c>
       <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
         <v>3</v>
       </c>
-      <c r="D25" t="s">
-        <v>32</v>
+      <c r="E25" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
       </c>
       <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
         <v>4</v>
       </c>
-      <c r="D26" t="s">
-        <v>33</v>
+      <c r="E26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
       </c>
       <c r="C27">
         <v>5</v>
       </c>
-      <c r="D27" t="s">
-        <v>34</v>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
       </c>
       <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
         <v>1</v>
       </c>
-      <c r="D28" t="s">
-        <v>36</v>
+      <c r="E28" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
       </c>
       <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
         <v>2</v>
       </c>
-      <c r="D29" t="s">
-        <v>37</v>
+      <c r="E29" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
       </c>
       <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
         <v>3</v>
       </c>
-      <c r="D30" t="s">
-        <v>38</v>
+      <c r="E30" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
       </c>
       <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
         <v>4</v>
       </c>
-      <c r="D31" t="s">
-        <v>39</v>
+      <c r="E31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
       </c>
       <c r="C32">
         <v>5</v>
       </c>
-      <c r="D32" t="s">
-        <v>40</v>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
       </c>
       <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
         <v>6</v>
       </c>
-      <c r="D33" t="s">
-        <v>41</v>
+      <c r="E33" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
       </c>
       <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
         <v>1</v>
       </c>
-      <c r="D34" t="s">
-        <v>43</v>
+      <c r="E34" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
       </c>
       <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
         <v>2</v>
       </c>
-      <c r="D35" t="s">
-        <v>44</v>
+      <c r="E35" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
       </c>
       <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
         <v>3</v>
       </c>
-      <c r="D36" t="s">
-        <v>45</v>
+      <c r="E36" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
       </c>
       <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
         <v>4</v>
       </c>
-      <c r="D37" t="s">
-        <v>46</v>
+      <c r="E37" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
       </c>
       <c r="C38">
         <v>5</v>
       </c>
-      <c r="D38" t="s">
-        <v>47</v>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
       </c>
       <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
         <v>6</v>
       </c>
-      <c r="D39" t="s">
-        <v>48</v>
+      <c r="E39" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40">
-        <v>5</v>
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
       </c>
       <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
         <v>1</v>
       </c>
-      <c r="D40" t="s">
-        <v>50</v>
+      <c r="E40" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41">
-        <v>5</v>
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
       </c>
       <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
         <v>2</v>
       </c>
-      <c r="D41" t="s">
-        <v>51</v>
+      <c r="E41" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42">
-        <v>5</v>
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
       </c>
       <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
         <v>3</v>
       </c>
-      <c r="D42" t="s">
-        <v>52</v>
+      <c r="E42" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43">
-        <v>5</v>
+        <v>58</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
       </c>
       <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
         <v>1</v>
       </c>
-      <c r="D43" t="s">
-        <v>54</v>
+      <c r="E43" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44">
-        <v>5</v>
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
       </c>
       <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
         <v>2</v>
       </c>
-      <c r="D44" t="s">
-        <v>55</v>
+      <c r="E44" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45">
-        <v>5</v>
+        <v>58</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
       </c>
       <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
         <v>3</v>
       </c>
-      <c r="D45" t="s">
-        <v>56</v>
+      <c r="E45" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46">
-        <v>5</v>
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>59</v>
       </c>
       <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
         <v>4</v>
       </c>
-      <c r="D46" t="s">
-        <v>57</v>
+      <c r="E46" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47">
-        <v>5</v>
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
       </c>
       <c r="C47">
         <v>5</v>
       </c>
-      <c r="D47" t="s">
-        <v>58</v>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48">
-        <v>5</v>
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
       </c>
       <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
         <v>6</v>
       </c>
-      <c r="D48" t="s">
-        <v>59</v>
+      <c r="E48" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49">
-        <v>5</v>
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
       </c>
       <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
         <v>7</v>
       </c>
-      <c r="D49" t="s">
-        <v>60</v>
+      <c r="E49" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="50"/>
     <row r="51">
       <c r="A51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="B51" t="s">
+        <v>68</v>
       </c>
       <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
         <v>1</v>
       </c>
-      <c r="D51" t="s">
-        <v>62</v>
+      <c r="E51" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
       </c>
       <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
         <v>2</v>
       </c>
-      <c r="D52" t="s">
-        <v>63</v>
+      <c r="E52" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
       </c>
       <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
         <v>3</v>
       </c>
-      <c r="D53" t="s">
-        <v>64</v>
+      <c r="E53" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
       </c>
       <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
         <v>4</v>
       </c>
-      <c r="D54" t="s">
-        <v>65</v>
+      <c r="E54" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
       </c>
       <c r="C55">
         <v>5</v>
       </c>
-      <c r="D55" t="s">
-        <v>66</v>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
       </c>
       <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
         <v>6</v>
       </c>
-      <c r="D56" t="s">
-        <v>67</v>
+      <c r="E56" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57">
-        <v>5</v>
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>76</v>
       </c>
       <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
         <v>1</v>
       </c>
-      <c r="D57" t="s">
-        <v>69</v>
+      <c r="E57" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58">
-        <v>5</v>
+        <v>75</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
       </c>
       <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
         <v>2</v>
       </c>
-      <c r="D58" t="s">
-        <v>70</v>
+      <c r="E58" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59">
-        <v>5</v>
+        <v>75</v>
+      </c>
+      <c r="B59" t="s">
+        <v>76</v>
       </c>
       <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
         <v>3</v>
       </c>
-      <c r="D59" t="s">
-        <v>71</v>
+      <c r="E59" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60">
-        <v>5</v>
+        <v>75</v>
+      </c>
+      <c r="B60" t="s">
+        <v>76</v>
       </c>
       <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
         <v>4</v>
       </c>
-      <c r="D60" t="s">
-        <v>72</v>
+      <c r="E60" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61">
-        <v>5</v>
+        <v>81</v>
+      </c>
+      <c r="B61" t="s">
+        <v>82</v>
       </c>
       <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
         <v>1</v>
       </c>
-      <c r="D61" t="s">
-        <v>74</v>
+      <c r="E61" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62">
-        <v>5</v>
+        <v>81</v>
+      </c>
+      <c r="B62" t="s">
+        <v>82</v>
       </c>
       <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
         <v>2</v>
       </c>
-      <c r="D62" t="s">
-        <v>75</v>
+      <c r="E62" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>73</v>
-      </c>
-      <c r="B63">
-        <v>5</v>
+        <v>81</v>
+      </c>
+      <c r="B63" t="s">
+        <v>82</v>
       </c>
       <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
         <v>3</v>
       </c>
-      <c r="D63" t="s">
-        <v>76</v>
+      <c r="E63" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>73</v>
-      </c>
-      <c r="B64">
-        <v>5</v>
+        <v>81</v>
+      </c>
+      <c r="B64" t="s">
+        <v>82</v>
       </c>
       <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
         <v>4</v>
       </c>
-      <c r="D64" t="s">
-        <v>77</v>
+      <c r="E64" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65">
-        <v>5</v>
+        <v>81</v>
+      </c>
+      <c r="B65" t="s">
+        <v>82</v>
       </c>
       <c r="C65">
         <v>5</v>
       </c>
-      <c r="D65" t="s">
-        <v>78</v>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66">
-        <v>5</v>
+        <v>81</v>
+      </c>
+      <c r="B66" t="s">
+        <v>82</v>
       </c>
       <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
         <v>6</v>
       </c>
-      <c r="D66" t="s">
-        <v>79</v>
+      <c r="E66" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>73</v>
-      </c>
-      <c r="B67">
-        <v>5</v>
+        <v>81</v>
+      </c>
+      <c r="B67" t="s">
+        <v>82</v>
       </c>
       <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
         <v>7</v>
       </c>
-      <c r="D67" t="s">
-        <v>80</v>
+      <c r="E67" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68">
-        <v>5</v>
+        <v>90</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
       </c>
       <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68">
         <v>1</v>
       </c>
-      <c r="D68" t="s">
-        <v>82</v>
+      <c r="E68" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>81</v>
-      </c>
-      <c r="B69">
-        <v>5</v>
+        <v>90</v>
+      </c>
+      <c r="B69" t="s">
+        <v>91</v>
       </c>
       <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
         <v>2</v>
       </c>
-      <c r="D69" t="s">
-        <v>83</v>
+      <c r="E69" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>81</v>
-      </c>
-      <c r="B70">
-        <v>5</v>
+        <v>90</v>
+      </c>
+      <c r="B70" t="s">
+        <v>91</v>
       </c>
       <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
         <v>3</v>
       </c>
-      <c r="D70" t="s">
-        <v>84</v>
+      <c r="E70" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>81</v>
-      </c>
-      <c r="B71">
-        <v>5</v>
+        <v>90</v>
+      </c>
+      <c r="B71" t="s">
+        <v>91</v>
       </c>
       <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71">
         <v>4</v>
       </c>
-      <c r="D71" t="s">
-        <v>85</v>
+      <c r="E71" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>81</v>
-      </c>
-      <c r="B72">
-        <v>5</v>
+        <v>90</v>
+      </c>
+      <c r="B72" t="s">
+        <v>91</v>
       </c>
       <c r="C72">
         <v>5</v>
       </c>
-      <c r="D72" t="s">
-        <v>86</v>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
